--- a/Code/Results/Cases/Case_3_146/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_146/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9794366744114645</v>
+        <v>1.032418752245418</v>
       </c>
       <c r="D2">
-        <v>1.001672284918433</v>
+        <v>1.035910719710084</v>
       </c>
       <c r="E2">
-        <v>0.986222495565573</v>
+        <v>1.031613825857425</v>
       </c>
       <c r="F2">
-        <v>0.9598140415612068</v>
+        <v>1.038572821579439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035131466635553</v>
+        <v>1.034637508855029</v>
       </c>
       <c r="J2">
-        <v>1.002250322128726</v>
+        <v>1.037549079072951</v>
       </c>
       <c r="K2">
-        <v>1.01310837121773</v>
+        <v>1.038705970644532</v>
       </c>
       <c r="L2">
-        <v>0.9978771695751218</v>
+        <v>1.034421436142875</v>
       </c>
       <c r="M2">
-        <v>0.9718631494919383</v>
+        <v>1.041360471105125</v>
       </c>
       <c r="N2">
-        <v>1.003673632545868</v>
+        <v>1.039022517773801</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9890486118577196</v>
+        <v>1.034119722557666</v>
       </c>
       <c r="D3">
-        <v>1.009238174426452</v>
+        <v>1.037237620941556</v>
       </c>
       <c r="E3">
-        <v>0.9945532786221425</v>
+        <v>1.033105564823505</v>
       </c>
       <c r="F3">
-        <v>0.9742685744915884</v>
+        <v>1.041053180131144</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039048100810074</v>
+        <v>1.035177153994262</v>
       </c>
       <c r="J3">
-        <v>1.00984234121375</v>
+        <v>1.03888852100973</v>
       </c>
       <c r="K3">
-        <v>1.019754200087019</v>
+        <v>1.039840990845459</v>
       </c>
       <c r="L3">
-        <v>1.005256328942401</v>
+        <v>1.035719945905549</v>
       </c>
       <c r="M3">
-        <v>0.9852416363848958</v>
+        <v>1.043646466135196</v>
       </c>
       <c r="N3">
-        <v>1.01127643316881</v>
+        <v>1.040363861871743</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9950055165193802</v>
+        <v>1.03521631883731</v>
       </c>
       <c r="D4">
-        <v>1.013926910102589</v>
+        <v>1.038092617490407</v>
       </c>
       <c r="E4">
-        <v>0.9997164344589357</v>
+        <v>1.034066739868556</v>
       </c>
       <c r="F4">
-        <v>0.9831215553411127</v>
+        <v>1.042649756546444</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041449457477646</v>
+        <v>1.035522662894668</v>
       </c>
       <c r="J4">
-        <v>1.01453785034602</v>
+        <v>1.03975093339028</v>
       </c>
       <c r="K4">
-        <v>1.023860105927567</v>
+        <v>1.040571301666554</v>
       </c>
       <c r="L4">
-        <v>1.009818283072126</v>
+        <v>1.036555603434578</v>
       </c>
       <c r="M4">
-        <v>0.9934280492715774</v>
+        <v>1.045117020195439</v>
       </c>
       <c r="N4">
-        <v>1.015978610462629</v>
+        <v>1.041227498976793</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9974519781265794</v>
+        <v>1.035676378928873</v>
       </c>
       <c r="D5">
-        <v>1.015852432405603</v>
+        <v>1.038451211435967</v>
       </c>
       <c r="E5">
-        <v>1.001836862400342</v>
+        <v>1.034469858303432</v>
       </c>
       <c r="F5">
-        <v>0.9867358377299196</v>
+        <v>1.043319000715439</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042429635776104</v>
+        <v>1.035667043084421</v>
       </c>
       <c r="J5">
-        <v>1.016463959283856</v>
+        <v>1.040112479119369</v>
       </c>
       <c r="K5">
-        <v>1.025543324694077</v>
+        <v>1.040877351065374</v>
       </c>
       <c r="L5">
-        <v>1.011689123503508</v>
+        <v>1.036905837063567</v>
       </c>
       <c r="M5">
-        <v>0.9967683362711932</v>
+        <v>1.045733220291134</v>
       </c>
       <c r="N5">
-        <v>1.017907454696085</v>
+        <v>1.041589558142288</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9978594937000951</v>
+        <v>1.035753569954511</v>
       </c>
       <c r="D6">
-        <v>1.016173164619407</v>
+        <v>1.038511371712291</v>
       </c>
       <c r="E6">
-        <v>1.002190063916121</v>
+        <v>1.034537487888423</v>
       </c>
       <c r="F6">
-        <v>0.9873367044222187</v>
+        <v>1.043431256459071</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042592556303367</v>
+        <v>1.035691234283002</v>
       </c>
       <c r="J6">
-        <v>1.016784661845446</v>
+        <v>1.040173125331259</v>
       </c>
       <c r="K6">
-        <v>1.025823525037264</v>
+        <v>1.040928681431003</v>
       </c>
       <c r="L6">
-        <v>1.012000594542045</v>
+        <v>1.036964580151192</v>
       </c>
       <c r="M6">
-        <v>0.9973235404717572</v>
+        <v>1.045836565847445</v>
       </c>
       <c r="N6">
-        <v>1.018228612692097</v>
+        <v>1.041650290478755</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9950384272733367</v>
+        <v>1.035222469885265</v>
       </c>
       <c r="D7">
-        <v>1.013952813516677</v>
+        <v>1.038097412347023</v>
       </c>
       <c r="E7">
-        <v>0.9997449595924401</v>
+        <v>1.034072130103927</v>
       </c>
       <c r="F7">
-        <v>0.9831702573858735</v>
+        <v>1.04265870664104</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041462666988943</v>
+        <v>1.035524595523489</v>
       </c>
       <c r="J7">
-        <v>1.01456377027932</v>
+        <v>1.039755768338407</v>
       </c>
       <c r="K7">
-        <v>1.023882761330712</v>
+        <v>1.040575394919145</v>
       </c>
       <c r="L7">
-        <v>1.009843461201672</v>
+        <v>1.036560287482713</v>
       </c>
       <c r="M7">
-        <v>0.9934730667478577</v>
+        <v>1.04512526176901</v>
       </c>
       <c r="N7">
-        <v>1.016004567205208</v>
+        <v>1.041232340791101</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9827427360485431</v>
+        <v>1.032994452504694</v>
       </c>
       <c r="D8">
-        <v>1.004274587139976</v>
+        <v>1.036359905874205</v>
       </c>
       <c r="E8">
-        <v>0.9890877821695141</v>
+        <v>1.032118821169921</v>
       </c>
       <c r="F8">
-        <v>0.9648106096504089</v>
+        <v>1.039412836116818</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036484258636996</v>
+        <v>1.034820651183743</v>
       </c>
       <c r="J8">
-        <v>1.00486365945847</v>
+        <v>1.038002649016134</v>
       </c>
       <c r="K8">
-        <v>1.01539696608882</v>
+        <v>1.039090418133385</v>
       </c>
       <c r="L8">
-        <v>1.000417623784531</v>
+        <v>1.034861228584751</v>
       </c>
       <c r="M8">
-        <v>0.9764893277034588</v>
+        <v>1.042134850831017</v>
       </c>
       <c r="N8">
-        <v>1.006290681114373</v>
+        <v>1.039476731838305</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9587914992788595</v>
+        <v>1.029036538841209</v>
       </c>
       <c r="D9">
-        <v>0.9854241397646087</v>
+        <v>1.033269985265333</v>
       </c>
       <c r="E9">
-        <v>0.9683359795562276</v>
+        <v>1.02864481807635</v>
       </c>
       <c r="F9">
-        <v>0.927935461435328</v>
+        <v>1.033626734008461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026557283315789</v>
+        <v>1.033551651534316</v>
       </c>
       <c r="J9">
-        <v>0.9858883331494307</v>
+        <v>1.03487979814529</v>
       </c>
       <c r="K9">
-        <v>0.9987582113873933</v>
+        <v>1.03644149449646</v>
       </c>
       <c r="L9">
-        <v>0.9819645606976868</v>
+        <v>1.031831577576594</v>
       </c>
       <c r="M9">
-        <v>0.9423169921532415</v>
+        <v>1.036797073170843</v>
       </c>
       <c r="N9">
-        <v>0.9872884076654751</v>
+        <v>1.036349446161029</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9408066654513059</v>
+        <v>1.026375265900729</v>
       </c>
       <c r="D10">
-        <v>0.9712747254418986</v>
+        <v>1.031190135704435</v>
       </c>
       <c r="E10">
-        <v>0.9527688009879013</v>
+        <v>1.026306190443726</v>
       </c>
       <c r="F10">
-        <v>0.8989992262664805</v>
+        <v>1.029721431878959</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01891768621812</v>
+        <v>1.0326858923409</v>
       </c>
       <c r="J10">
-        <v>0.9715829362161641</v>
+        <v>1.032774259754895</v>
       </c>
       <c r="K10">
-        <v>0.9861827428524947</v>
+        <v>1.034653007841186</v>
       </c>
       <c r="L10">
-        <v>0.9680466130568008</v>
+        <v>1.029786785191292</v>
       </c>
       <c r="M10">
-        <v>0.915467602218957</v>
+        <v>1.033189614051325</v>
       </c>
       <c r="N10">
-        <v>0.9729626954277115</v>
+        <v>1.034240917664611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9323903243901218</v>
+        <v>1.025217250615146</v>
       </c>
       <c r="D11">
-        <v>0.9646545870530754</v>
+        <v>1.030284606649805</v>
       </c>
       <c r="E11">
-        <v>0.945490295888424</v>
+        <v>1.025287926098294</v>
       </c>
       <c r="F11">
-        <v>0.884984469287263</v>
+        <v>1.028018305107158</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015287967433731</v>
+        <v>1.03230619634258</v>
       </c>
       <c r="J11">
-        <v>0.9648737656580851</v>
+        <v>1.0318567007089</v>
       </c>
       <c r="K11">
-        <v>0.9802753349297655</v>
+        <v>1.033873028246897</v>
       </c>
       <c r="L11">
-        <v>0.9615189927369377</v>
+        <v>1.028895200722633</v>
       </c>
       <c r="M11">
-        <v>0.9024586574920408</v>
+        <v>1.03161525255074</v>
       </c>
       <c r="N11">
-        <v>0.9662439970778876</v>
+        <v>1.033322055579525</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.929152003796423</v>
+        <v>1.024786236586676</v>
       </c>
       <c r="D12">
-        <v>0.9621074724996777</v>
+        <v>1.029947492240568</v>
       </c>
       <c r="E12">
-        <v>0.9426910393441829</v>
+        <v>1.0249088311574</v>
       </c>
       <c r="F12">
-        <v>0.8794973650068468</v>
+        <v>1.027383806073543</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013881739753727</v>
+        <v>1.032164425691444</v>
       </c>
       <c r="J12">
-        <v>0.9622898991493986</v>
+        <v>1.031514979862898</v>
       </c>
       <c r="K12">
-        <v>0.9779985126463415</v>
+        <v>1.033582457421904</v>
       </c>
       <c r="L12">
-        <v>0.9590052003407948</v>
+        <v>1.028563078589181</v>
       </c>
       <c r="M12">
-        <v>0.8973650543191489</v>
+        <v>1.031028555910913</v>
       </c>
       <c r="N12">
-        <v>0.9636564611823846</v>
+        <v>1.032979849450725</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9298520530019978</v>
+        <v>1.024878730574731</v>
       </c>
       <c r="D13">
-        <v>0.962658098800827</v>
+        <v>1.03001983914234</v>
       </c>
       <c r="E13">
-        <v>0.9432961110136486</v>
+        <v>1.024990187854898</v>
       </c>
       <c r="F13">
-        <v>0.8806883034699314</v>
+        <v>1.027519994460433</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014186197234155</v>
+        <v>1.032194869400958</v>
       </c>
       <c r="J13">
-        <v>0.9628485837138645</v>
+        <v>1.031588321132547</v>
       </c>
       <c r="K13">
-        <v>0.9784908924925465</v>
+        <v>1.033644824672622</v>
       </c>
       <c r="L13">
-        <v>0.9595487227702298</v>
+        <v>1.028634363137805</v>
       </c>
       <c r="M13">
-        <v>0.8984705902572382</v>
+        <v>1.031154491672924</v>
       </c>
       <c r="N13">
-        <v>0.9642159391430144</v>
+        <v>1.03305329487339</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9321250529872548</v>
+        <v>1.025181640864594</v>
       </c>
       <c r="D14">
-        <v>0.964445936184894</v>
+        <v>1.030256756290852</v>
       </c>
       <c r="E14">
-        <v>0.945260963660954</v>
+        <v>1.025256607788013</v>
       </c>
       <c r="F14">
-        <v>0.8845370672737004</v>
+        <v>1.027965895980464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015172979234675</v>
+        <v>1.032294492587487</v>
       </c>
       <c r="J14">
-        <v>0.9646621549011758</v>
+        <v>1.031828472405091</v>
       </c>
       <c r="K14">
-        <v>0.9800889073588548</v>
+        <v>1.033849027047435</v>
       </c>
       <c r="L14">
-        <v>0.9613131164157281</v>
+        <v>1.028867766859129</v>
       </c>
       <c r="M14">
-        <v>0.902043343150511</v>
+        <v>1.031566795309094</v>
       </c>
       <c r="N14">
-        <v>0.9660320858094312</v>
+        <v>1.033293787188286</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9335100450383765</v>
+        <v>1.025368157134906</v>
       </c>
       <c r="D15">
-        <v>0.9655353127751665</v>
+        <v>1.030402627424146</v>
       </c>
       <c r="E15">
-        <v>0.9464583687860693</v>
+        <v>1.025420642472264</v>
       </c>
       <c r="F15">
-        <v>0.8868689831236144</v>
+        <v>1.028240379335608</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015772938021912</v>
+        <v>1.032355776039049</v>
       </c>
       <c r="J15">
-        <v>0.9657668840424987</v>
+        <v>1.031976317854586</v>
       </c>
       <c r="K15">
-        <v>0.9810620937743413</v>
+        <v>1.033974729489558</v>
       </c>
       <c r="L15">
-        <v>0.962387916014767</v>
+        <v>1.029011448373636</v>
       </c>
       <c r="M15">
-        <v>0.9042080051397605</v>
+        <v>1.031820574464876</v>
       </c>
       <c r="N15">
-        <v>0.9671383837928488</v>
+        <v>1.033441842595278</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9413505943011775</v>
+        <v>1.026451998112162</v>
       </c>
       <c r="D16">
-        <v>0.9717025911565033</v>
+        <v>1.031250127036284</v>
       </c>
       <c r="E16">
-        <v>0.9532393488245885</v>
+        <v>1.026373649001667</v>
       </c>
       <c r="F16">
-        <v>0.8998935778995786</v>
+        <v>1.029834202382899</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019151048368817</v>
+        <v>1.032710989098741</v>
       </c>
       <c r="J16">
-        <v>0.9720162212638066</v>
+        <v>1.032835030227475</v>
       </c>
       <c r="K16">
-        <v>0.9865640329643706</v>
+        <v>1.034704654043722</v>
       </c>
       <c r="L16">
-        <v>0.9684681833075065</v>
+        <v>1.029845824888407</v>
       </c>
       <c r="M16">
-        <v>0.9162977013166518</v>
+        <v>1.033293834870873</v>
       </c>
       <c r="N16">
-        <v>0.9733965957898202</v>
+        <v>1.034301774438231</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9460895186321516</v>
+        <v>1.027130328824234</v>
       </c>
       <c r="D17">
-        <v>0.975430479358251</v>
+        <v>1.03178040559114</v>
       </c>
       <c r="E17">
-        <v>0.9573396917978467</v>
+        <v>1.026969924333582</v>
       </c>
       <c r="F17">
-        <v>0.907631371523697</v>
+        <v>1.030830680337202</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021178043088917</v>
+        <v>1.032932507624013</v>
       </c>
       <c r="J17">
-        <v>0.9757895363723679</v>
+        <v>1.033372098300688</v>
       </c>
       <c r="K17">
-        <v>0.9898834664479724</v>
+        <v>1.035161017534101</v>
       </c>
       <c r="L17">
-        <v>0.972139474005057</v>
+        <v>1.030367539679188</v>
       </c>
       <c r="M17">
-        <v>0.9234790903896435</v>
+        <v>1.034214635376307</v>
       </c>
       <c r="N17">
-        <v>0.9771752694386407</v>
+        <v>1.034839605209711</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9487944022011936</v>
+        <v>1.02752544257084</v>
       </c>
       <c r="D18">
-        <v>0.9775584198832876</v>
+        <v>1.03208923267224</v>
       </c>
       <c r="E18">
-        <v>0.959680658182508</v>
+        <v>1.027317180557376</v>
       </c>
       <c r="F18">
-        <v>0.9120062440130621</v>
+        <v>1.031410745433321</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022330099496977</v>
+        <v>1.033061251659171</v>
       </c>
       <c r="J18">
-        <v>0.9779419350434537</v>
+        <v>1.033684798242885</v>
       </c>
       <c r="K18">
-        <v>0.9917761041578583</v>
+        <v>1.035426672035844</v>
       </c>
       <c r="L18">
-        <v>0.9742336463279061</v>
+        <v>1.030671252582067</v>
       </c>
       <c r="M18">
-        <v>0.9275389012114277</v>
+        <v>1.034750539284219</v>
       </c>
       <c r="N18">
-        <v>0.9793307247627232</v>
+        <v>1.035152749221693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9497071019539728</v>
+        <v>1.027660074420822</v>
       </c>
       <c r="D19">
-        <v>0.9782764679118442</v>
+        <v>1.032194454635729</v>
       </c>
       <c r="E19">
-        <v>0.96047065197049</v>
+        <v>1.027435494820516</v>
       </c>
       <c r="F19">
-        <v>0.9134759041618122</v>
+        <v>1.031608337162708</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022718032820602</v>
+        <v>1.033105071680562</v>
       </c>
       <c r="J19">
-        <v>0.9786679892297572</v>
+        <v>1.03379132598896</v>
       </c>
       <c r="K19">
-        <v>0.992414396361017</v>
+        <v>1.035517163199889</v>
       </c>
       <c r="L19">
-        <v>0.9749400504178337</v>
+        <v>1.030774710598194</v>
       </c>
       <c r="M19">
-        <v>0.9289026314544403</v>
+        <v>1.034933069718379</v>
       </c>
       <c r="N19">
-        <v>0.9800578100292509</v>
+        <v>1.035259428249386</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.945587316435522</v>
+        <v>1.02705760691338</v>
       </c>
       <c r="D20">
-        <v>0.9750354067098733</v>
+        <v>1.031723561028518</v>
       </c>
       <c r="E20">
-        <v>0.9569051009731466</v>
+        <v>1.026906005755054</v>
       </c>
       <c r="F20">
-        <v>0.9068158508874842</v>
+        <v>1.03072388849718</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020963754863411</v>
+        <v>1.032908788852756</v>
       </c>
       <c r="J20">
-        <v>0.9753898036998434</v>
+        <v>1.03331453433473</v>
       </c>
       <c r="K20">
-        <v>0.9895319073134896</v>
+        <v>1.035112109471961</v>
       </c>
       <c r="L20">
-        <v>0.9717505514644528</v>
+        <v>1.03031162625706</v>
       </c>
       <c r="M20">
-        <v>0.9227222590758171</v>
+        <v>1.034115965033166</v>
       </c>
       <c r="N20">
-        <v>0.9767749690998714</v>
+        <v>1.034781959496319</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.931458975814082</v>
+        <v>1.025092465701372</v>
       </c>
       <c r="D21">
-        <v>0.9639220297887728</v>
+        <v>1.030187011240801</v>
       </c>
       <c r="E21">
-        <v>0.9446851484614521</v>
+        <v>1.025178177843714</v>
       </c>
       <c r="F21">
-        <v>0.8834120588656008</v>
+        <v>1.027834641561373</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014884091953935</v>
+        <v>1.032265176411581</v>
       </c>
       <c r="J21">
-        <v>0.9641307762537143</v>
+        <v>1.031757778808791</v>
       </c>
       <c r="K21">
-        <v>0.9796207375152192</v>
+        <v>1.033788918189178</v>
       </c>
       <c r="L21">
-        <v>0.9607961408086401</v>
+        <v>1.028799061612152</v>
       </c>
       <c r="M21">
-        <v>0.9009990174321237</v>
+        <v>1.031445435338077</v>
       </c>
       <c r="N21">
-        <v>0.9654999525433404</v>
+        <v>1.033222993198971</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9219138432029055</v>
+        <v>1.023851825231024</v>
       </c>
       <c r="D22">
-        <v>0.9564141262130296</v>
+        <v>1.029216511492151</v>
       </c>
       <c r="E22">
-        <v>0.9364369853545029</v>
+        <v>1.024086801297737</v>
       </c>
       <c r="F22">
-        <v>0.8670195140223395</v>
+        <v>1.026007136823883</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010718384124195</v>
+        <v>1.031856255649654</v>
       </c>
       <c r="J22">
-        <v>0.9565097032686687</v>
+        <v>1.030773775817996</v>
       </c>
       <c r="K22">
-        <v>0.9729014653672947</v>
+        <v>1.032952038953504</v>
       </c>
       <c r="L22">
-        <v>0.9533823310161584</v>
+        <v>1.027842557365968</v>
       </c>
       <c r="M22">
-        <v>0.8857821761875165</v>
+        <v>1.029755293865902</v>
       </c>
       <c r="N22">
-        <v>0.9578680567605066</v>
+        <v>1.032237592811063</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9270441642403523</v>
+        <v>1.024510001771129</v>
       </c>
       <c r="D23">
-        <v>0.9604495369609292</v>
+        <v>1.029731415987634</v>
       </c>
       <c r="E23">
-        <v>0.9408693871049015</v>
+        <v>1.024665843971196</v>
       </c>
       <c r="F23">
-        <v>0.8758950999345341</v>
+        <v>1.026976988271895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01296345643695</v>
+        <v>1.032073439442087</v>
       </c>
       <c r="J23">
-        <v>0.9606073296742547</v>
+        <v>1.031295914975089</v>
       </c>
       <c r="K23">
-        <v>0.9765153436187399</v>
+        <v>1.033396158263263</v>
       </c>
       <c r="L23">
-        <v>0.9573683354815198</v>
+        <v>1.028350146006833</v>
       </c>
       <c r="M23">
-        <v>0.8940211110935732</v>
+        <v>1.030652339691235</v>
       </c>
       <c r="N23">
-        <v>0.9619715022655929</v>
+        <v>1.032760473465649</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9458144218245603</v>
+        <v>1.027090468498194</v>
       </c>
       <c r="D24">
-        <v>0.9752140656483247</v>
+        <v>1.031749248108091</v>
       </c>
       <c r="E24">
-        <v>0.9571016294496179</v>
+        <v>1.026934889480687</v>
       </c>
       <c r="F24">
-        <v>0.9071847733155555</v>
+        <v>1.030772146725429</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02106067529802</v>
+        <v>1.032919507777806</v>
       </c>
       <c r="J24">
-        <v>0.9755705745688614</v>
+        <v>1.033340546751513</v>
       </c>
       <c r="K24">
-        <v>0.9896908953390763</v>
+        <v>1.035134210571414</v>
       </c>
       <c r="L24">
-        <v>0.9719264337761147</v>
+        <v>1.030336892962164</v>
       </c>
       <c r="M24">
-        <v>0.9230646333484251</v>
+        <v>1.034160553567961</v>
       </c>
       <c r="N24">
-        <v>0.9769559966842585</v>
+        <v>1.034808008853718</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9652974868685483</v>
+        <v>1.030063656907836</v>
       </c>
       <c r="D25">
-        <v>0.9905438901636728</v>
+        <v>1.034072242343767</v>
       </c>
       <c r="E25">
-        <v>0.9739711316254424</v>
+        <v>1.02954683778813</v>
       </c>
       <c r="F25">
-        <v>0.9381177539515945</v>
+        <v>1.035130783362377</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029282214256721</v>
+        <v>1.033883159609586</v>
       </c>
       <c r="J25">
-        <v>0.9910519538798476</v>
+        <v>1.035691220050267</v>
       </c>
       <c r="K25">
-        <v>1.003290795423355</v>
+        <v>1.037130211396782</v>
       </c>
       <c r="L25">
-        <v>0.986987414425287</v>
+        <v>1.032619149536559</v>
       </c>
       <c r="M25">
-        <v>0.9517592105100693</v>
+        <v>1.038185417289949</v>
       </c>
       <c r="N25">
-        <v>0.9924593613296046</v>
+        <v>1.037162020378182</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_146/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_146/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032418752245418</v>
+        <v>0.9794366744114623</v>
       </c>
       <c r="D2">
-        <v>1.035910719710084</v>
+        <v>1.001672284918431</v>
       </c>
       <c r="E2">
-        <v>1.031613825857425</v>
+        <v>0.9862224955655711</v>
       </c>
       <c r="F2">
-        <v>1.038572821579439</v>
+        <v>0.959814041561206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034637508855029</v>
+        <v>1.035131466635552</v>
       </c>
       <c r="J2">
-        <v>1.037549079072951</v>
+        <v>1.002250322128724</v>
       </c>
       <c r="K2">
-        <v>1.038705970644532</v>
+        <v>1.013108371217728</v>
       </c>
       <c r="L2">
-        <v>1.034421436142875</v>
+        <v>0.9978771695751201</v>
       </c>
       <c r="M2">
-        <v>1.041360471105125</v>
+        <v>0.9718631494919376</v>
       </c>
       <c r="N2">
-        <v>1.039022517773801</v>
+        <v>1.003673632545866</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034119722557666</v>
+        <v>0.9890486118577188</v>
       </c>
       <c r="D3">
-        <v>1.037237620941556</v>
+        <v>1.009238174426451</v>
       </c>
       <c r="E3">
-        <v>1.033105564823505</v>
+        <v>0.9945532786221414</v>
       </c>
       <c r="F3">
-        <v>1.041053180131144</v>
+        <v>0.9742685744915875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035177153994262</v>
+        <v>1.039048100810074</v>
       </c>
       <c r="J3">
-        <v>1.03888852100973</v>
+        <v>1.00984234121375</v>
       </c>
       <c r="K3">
-        <v>1.039840990845459</v>
+        <v>1.019754200087018</v>
       </c>
       <c r="L3">
-        <v>1.035719945905549</v>
+        <v>1.005256328942399</v>
       </c>
       <c r="M3">
-        <v>1.043646466135196</v>
+        <v>0.9852416363848949</v>
       </c>
       <c r="N3">
-        <v>1.040363861871743</v>
+        <v>1.011276433168809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03521631883731</v>
+        <v>0.9950055165193809</v>
       </c>
       <c r="D4">
-        <v>1.038092617490407</v>
+        <v>1.01392691010259</v>
       </c>
       <c r="E4">
-        <v>1.034066739868556</v>
+        <v>0.999716434458936</v>
       </c>
       <c r="F4">
-        <v>1.042649756546444</v>
+        <v>0.9831215553411139</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035522662894668</v>
+        <v>1.041449457477647</v>
       </c>
       <c r="J4">
-        <v>1.03975093339028</v>
+        <v>1.01453785034602</v>
       </c>
       <c r="K4">
-        <v>1.040571301666554</v>
+        <v>1.023860105927567</v>
       </c>
       <c r="L4">
-        <v>1.036555603434578</v>
+        <v>1.009818283072127</v>
       </c>
       <c r="M4">
-        <v>1.045117020195439</v>
+        <v>0.9934280492715787</v>
       </c>
       <c r="N4">
-        <v>1.041227498976793</v>
+        <v>1.01597861046263</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035676378928873</v>
+        <v>0.9974519781265786</v>
       </c>
       <c r="D5">
-        <v>1.038451211435967</v>
+        <v>1.015852432405602</v>
       </c>
       <c r="E5">
-        <v>1.034469858303432</v>
+        <v>1.001836862400342</v>
       </c>
       <c r="F5">
-        <v>1.043319000715439</v>
+        <v>0.986735837729919</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035667043084421</v>
+        <v>1.042429635776104</v>
       </c>
       <c r="J5">
-        <v>1.040112479119369</v>
+        <v>1.016463959283856</v>
       </c>
       <c r="K5">
-        <v>1.040877351065374</v>
+        <v>1.025543324694076</v>
       </c>
       <c r="L5">
-        <v>1.036905837063567</v>
+        <v>1.011689123503507</v>
       </c>
       <c r="M5">
-        <v>1.045733220291134</v>
+        <v>0.9967683362711929</v>
       </c>
       <c r="N5">
-        <v>1.041589558142288</v>
+        <v>1.017907454696084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035753569954511</v>
+        <v>0.9978594937000933</v>
       </c>
       <c r="D6">
-        <v>1.038511371712291</v>
+        <v>1.016173164619406</v>
       </c>
       <c r="E6">
-        <v>1.034537487888423</v>
+        <v>1.002190063916119</v>
       </c>
       <c r="F6">
-        <v>1.043431256459071</v>
+        <v>0.9873367044222165</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035691234283002</v>
+        <v>1.042592556303366</v>
       </c>
       <c r="J6">
-        <v>1.040173125331259</v>
+        <v>1.016784661845445</v>
       </c>
       <c r="K6">
-        <v>1.040928681431003</v>
+        <v>1.025823525037262</v>
       </c>
       <c r="L6">
-        <v>1.036964580151192</v>
+        <v>1.012000594542043</v>
       </c>
       <c r="M6">
-        <v>1.045836565847445</v>
+        <v>0.9973235404717553</v>
       </c>
       <c r="N6">
-        <v>1.041650290478755</v>
+        <v>1.018228612692096</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035222469885265</v>
+        <v>0.9950384272733385</v>
       </c>
       <c r="D7">
-        <v>1.038097412347023</v>
+        <v>1.013952813516679</v>
       </c>
       <c r="E7">
-        <v>1.034072130103927</v>
+        <v>0.9997449595924419</v>
       </c>
       <c r="F7">
-        <v>1.04265870664104</v>
+        <v>0.9831702573858752</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035524595523489</v>
+        <v>1.041462666988944</v>
       </c>
       <c r="J7">
-        <v>1.039755768338407</v>
+        <v>1.014563770279322</v>
       </c>
       <c r="K7">
-        <v>1.040575394919145</v>
+        <v>1.023882761330714</v>
       </c>
       <c r="L7">
-        <v>1.036560287482713</v>
+        <v>1.009843461201674</v>
       </c>
       <c r="M7">
-        <v>1.04512526176901</v>
+        <v>0.9934730667478594</v>
       </c>
       <c r="N7">
-        <v>1.041232340791101</v>
+        <v>1.016004567205209</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032994452504694</v>
+        <v>0.9827427360485407</v>
       </c>
       <c r="D8">
-        <v>1.036359905874205</v>
+        <v>1.004274587139975</v>
       </c>
       <c r="E8">
-        <v>1.032118821169921</v>
+        <v>0.9890877821695122</v>
       </c>
       <c r="F8">
-        <v>1.039412836116818</v>
+        <v>0.964810609650408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034820651183743</v>
+        <v>1.036484258636996</v>
       </c>
       <c r="J8">
-        <v>1.038002649016134</v>
+        <v>1.004863659458468</v>
       </c>
       <c r="K8">
-        <v>1.039090418133385</v>
+        <v>1.015396966088818</v>
       </c>
       <c r="L8">
-        <v>1.034861228584751</v>
+        <v>1.000417623784529</v>
       </c>
       <c r="M8">
-        <v>1.042134850831017</v>
+        <v>0.9764893277034578</v>
       </c>
       <c r="N8">
-        <v>1.039476731838305</v>
+        <v>1.006290681114371</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029036538841209</v>
+        <v>0.9587914992788586</v>
       </c>
       <c r="D9">
-        <v>1.033269985265333</v>
+        <v>0.9854241397646076</v>
       </c>
       <c r="E9">
-        <v>1.02864481807635</v>
+        <v>0.9683359795562267</v>
       </c>
       <c r="F9">
-        <v>1.033626734008461</v>
+        <v>0.9279354614353265</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033551651534316</v>
+        <v>1.026557283315789</v>
       </c>
       <c r="J9">
-        <v>1.03487979814529</v>
+        <v>0.9858883331494298</v>
       </c>
       <c r="K9">
-        <v>1.03644149449646</v>
+        <v>0.9987582113873923</v>
       </c>
       <c r="L9">
-        <v>1.031831577576594</v>
+        <v>0.9819645606976858</v>
       </c>
       <c r="M9">
-        <v>1.036797073170843</v>
+        <v>0.9423169921532401</v>
       </c>
       <c r="N9">
-        <v>1.036349446161029</v>
+        <v>0.9872884076654742</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026375265900729</v>
+        <v>0.9408066654513045</v>
       </c>
       <c r="D10">
-        <v>1.031190135704435</v>
+        <v>0.9712747254418974</v>
       </c>
       <c r="E10">
-        <v>1.026306190443726</v>
+        <v>0.9527688009878998</v>
       </c>
       <c r="F10">
-        <v>1.029721431878959</v>
+        <v>0.8989992262664799</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0326858923409</v>
+        <v>1.01891768621812</v>
       </c>
       <c r="J10">
-        <v>1.032774259754895</v>
+        <v>0.971582936216163</v>
       </c>
       <c r="K10">
-        <v>1.034653007841186</v>
+        <v>0.9861827428524935</v>
       </c>
       <c r="L10">
-        <v>1.029786785191292</v>
+        <v>0.9680466130567996</v>
       </c>
       <c r="M10">
-        <v>1.033189614051325</v>
+        <v>0.9154676022189563</v>
       </c>
       <c r="N10">
-        <v>1.034240917664611</v>
+        <v>0.9729626954277102</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025217250615146</v>
+        <v>0.9323903243901212</v>
       </c>
       <c r="D11">
-        <v>1.030284606649805</v>
+        <v>0.9646545870530748</v>
       </c>
       <c r="E11">
-        <v>1.025287926098294</v>
+        <v>0.9454902958884235</v>
       </c>
       <c r="F11">
-        <v>1.028018305107158</v>
+        <v>0.8849844692872625</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03230619634258</v>
+        <v>1.015287967433731</v>
       </c>
       <c r="J11">
-        <v>1.0318567007089</v>
+        <v>0.9648737656580846</v>
       </c>
       <c r="K11">
-        <v>1.033873028246897</v>
+        <v>0.9802753349297649</v>
       </c>
       <c r="L11">
-        <v>1.028895200722633</v>
+        <v>0.961518992736937</v>
       </c>
       <c r="M11">
-        <v>1.03161525255074</v>
+        <v>0.9024586574920401</v>
       </c>
       <c r="N11">
-        <v>1.033322055579525</v>
+        <v>0.9662439970778869</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024786236586676</v>
+        <v>0.929152003796425</v>
       </c>
       <c r="D12">
-        <v>1.029947492240568</v>
+        <v>0.9621074724996792</v>
       </c>
       <c r="E12">
-        <v>1.0249088311574</v>
+        <v>0.9426910393441846</v>
       </c>
       <c r="F12">
-        <v>1.027383806073543</v>
+        <v>0.8794973650068478</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032164425691444</v>
+        <v>1.013881739753728</v>
       </c>
       <c r="J12">
-        <v>1.031514979862898</v>
+        <v>0.9622898991494004</v>
       </c>
       <c r="K12">
-        <v>1.033582457421904</v>
+        <v>0.977998512646343</v>
       </c>
       <c r="L12">
-        <v>1.028563078589181</v>
+        <v>0.9590052003407967</v>
       </c>
       <c r="M12">
-        <v>1.031028555910913</v>
+        <v>0.89736505431915</v>
       </c>
       <c r="N12">
-        <v>1.032979849450725</v>
+        <v>0.963656461182387</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024878730574731</v>
+        <v>0.9298520530019981</v>
       </c>
       <c r="D13">
-        <v>1.03001983914234</v>
+        <v>0.9626580988008276</v>
       </c>
       <c r="E13">
-        <v>1.024990187854898</v>
+        <v>0.9432961110136489</v>
       </c>
       <c r="F13">
-        <v>1.027519994460433</v>
+        <v>0.8806883034699327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032194869400958</v>
+        <v>1.014186197234155</v>
       </c>
       <c r="J13">
-        <v>1.031588321132547</v>
+        <v>0.9628485837138648</v>
       </c>
       <c r="K13">
-        <v>1.033644824672622</v>
+        <v>0.9784908924925471</v>
       </c>
       <c r="L13">
-        <v>1.028634363137805</v>
+        <v>0.9595487227702301</v>
       </c>
       <c r="M13">
-        <v>1.031154491672924</v>
+        <v>0.8984705902572393</v>
       </c>
       <c r="N13">
-        <v>1.03305329487339</v>
+        <v>0.9642159391430146</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025181640864594</v>
+        <v>0.932125052987255</v>
       </c>
       <c r="D14">
-        <v>1.030256756290852</v>
+        <v>0.964445936184894</v>
       </c>
       <c r="E14">
-        <v>1.025256607788013</v>
+        <v>0.9452609636609544</v>
       </c>
       <c r="F14">
-        <v>1.027965895980464</v>
+        <v>0.8845370672737002</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032294492587487</v>
+        <v>1.015172979234674</v>
       </c>
       <c r="J14">
-        <v>1.031828472405091</v>
+        <v>0.9646621549011759</v>
       </c>
       <c r="K14">
-        <v>1.033849027047435</v>
+        <v>0.9800889073588546</v>
       </c>
       <c r="L14">
-        <v>1.028867766859129</v>
+        <v>0.9613131164157284</v>
       </c>
       <c r="M14">
-        <v>1.031566795309094</v>
+        <v>0.902043343150511</v>
       </c>
       <c r="N14">
-        <v>1.033293787188286</v>
+        <v>0.9660320858094315</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025368157134906</v>
+        <v>0.933510045038375</v>
       </c>
       <c r="D15">
-        <v>1.030402627424146</v>
+        <v>0.9655353127751649</v>
       </c>
       <c r="E15">
-        <v>1.025420642472264</v>
+        <v>0.9464583687860675</v>
       </c>
       <c r="F15">
-        <v>1.028240379335608</v>
+        <v>0.8868689831236128</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032355776039049</v>
+        <v>1.015772938021912</v>
       </c>
       <c r="J15">
-        <v>1.031976317854586</v>
+        <v>0.9657668840424967</v>
       </c>
       <c r="K15">
-        <v>1.033974729489558</v>
+        <v>0.9810620937743397</v>
       </c>
       <c r="L15">
-        <v>1.029011448373636</v>
+        <v>0.9623879160147651</v>
       </c>
       <c r="M15">
-        <v>1.031820574464876</v>
+        <v>0.9042080051397589</v>
       </c>
       <c r="N15">
-        <v>1.033441842595278</v>
+        <v>0.9671383837928472</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026451998112162</v>
+        <v>0.9413505943011777</v>
       </c>
       <c r="D16">
-        <v>1.031250127036284</v>
+        <v>0.9717025911565035</v>
       </c>
       <c r="E16">
-        <v>1.026373649001667</v>
+        <v>0.9532393488245885</v>
       </c>
       <c r="F16">
-        <v>1.029834202382899</v>
+        <v>0.8998935778995777</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032710989098741</v>
+        <v>1.019151048368817</v>
       </c>
       <c r="J16">
-        <v>1.032835030227475</v>
+        <v>0.9720162212638068</v>
       </c>
       <c r="K16">
-        <v>1.034704654043722</v>
+        <v>0.9865640329643707</v>
       </c>
       <c r="L16">
-        <v>1.029845824888407</v>
+        <v>0.9684681833075065</v>
       </c>
       <c r="M16">
-        <v>1.033293834870873</v>
+        <v>0.9162977013166508</v>
       </c>
       <c r="N16">
-        <v>1.034301774438231</v>
+        <v>0.9733965957898205</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027130328824234</v>
+        <v>0.9460895186321515</v>
       </c>
       <c r="D17">
-        <v>1.03178040559114</v>
+        <v>0.9754304793582513</v>
       </c>
       <c r="E17">
-        <v>1.026969924333582</v>
+        <v>0.9573396917978466</v>
       </c>
       <c r="F17">
-        <v>1.030830680337202</v>
+        <v>0.9076313715236975</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032932507624013</v>
+        <v>1.021178043088917</v>
       </c>
       <c r="J17">
-        <v>1.033372098300688</v>
+        <v>0.9757895363723679</v>
       </c>
       <c r="K17">
-        <v>1.035161017534101</v>
+        <v>0.9898834664479724</v>
       </c>
       <c r="L17">
-        <v>1.030367539679188</v>
+        <v>0.972139474005057</v>
       </c>
       <c r="M17">
-        <v>1.034214635376307</v>
+        <v>0.923479090389644</v>
       </c>
       <c r="N17">
-        <v>1.034839605209711</v>
+        <v>0.9771752694386406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02752544257084</v>
+        <v>0.9487944022011909</v>
       </c>
       <c r="D18">
-        <v>1.03208923267224</v>
+        <v>0.9775584198832854</v>
       </c>
       <c r="E18">
-        <v>1.027317180557376</v>
+        <v>0.9596806581825056</v>
       </c>
       <c r="F18">
-        <v>1.031410745433321</v>
+        <v>0.9120062440130611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033061251659171</v>
+        <v>1.022330099496976</v>
       </c>
       <c r="J18">
-        <v>1.033684798242885</v>
+        <v>0.9779419350434512</v>
       </c>
       <c r="K18">
-        <v>1.035426672035844</v>
+        <v>0.9917761041578563</v>
       </c>
       <c r="L18">
-        <v>1.030671252582067</v>
+        <v>0.9742336463279038</v>
       </c>
       <c r="M18">
-        <v>1.034750539284219</v>
+        <v>0.9275389012114266</v>
       </c>
       <c r="N18">
-        <v>1.035152749221693</v>
+        <v>0.9793307247627207</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027660074420822</v>
+        <v>0.9497071019539751</v>
       </c>
       <c r="D19">
-        <v>1.032194454635729</v>
+        <v>0.9782764679118462</v>
       </c>
       <c r="E19">
-        <v>1.027435494820516</v>
+        <v>0.960470651970492</v>
       </c>
       <c r="F19">
-        <v>1.031608337162708</v>
+        <v>0.9134759041618141</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033105071680562</v>
+        <v>1.022718032820603</v>
       </c>
       <c r="J19">
-        <v>1.03379132598896</v>
+        <v>0.9786679892297593</v>
       </c>
       <c r="K19">
-        <v>1.035517163199889</v>
+        <v>0.9924143963610189</v>
       </c>
       <c r="L19">
-        <v>1.030774710598194</v>
+        <v>0.9749400504178356</v>
       </c>
       <c r="M19">
-        <v>1.034933069718379</v>
+        <v>0.9289026314544421</v>
       </c>
       <c r="N19">
-        <v>1.035259428249386</v>
+        <v>0.9800578100292527</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02705760691338</v>
+        <v>0.9455873164355231</v>
       </c>
       <c r="D20">
-        <v>1.031723561028518</v>
+        <v>0.9750354067098743</v>
       </c>
       <c r="E20">
-        <v>1.026906005755054</v>
+        <v>0.9569051009731471</v>
       </c>
       <c r="F20">
-        <v>1.03072388849718</v>
+        <v>0.906815850887484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032908788852756</v>
+        <v>1.020963754863411</v>
       </c>
       <c r="J20">
-        <v>1.03331453433473</v>
+        <v>0.9753898036998443</v>
       </c>
       <c r="K20">
-        <v>1.035112109471961</v>
+        <v>0.9895319073134905</v>
       </c>
       <c r="L20">
-        <v>1.03031162625706</v>
+        <v>0.9717505514644533</v>
       </c>
       <c r="M20">
-        <v>1.034115965033166</v>
+        <v>0.922722259075817</v>
       </c>
       <c r="N20">
-        <v>1.034781959496319</v>
+        <v>0.9767749690998722</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025092465701372</v>
+        <v>0.9314589758140811</v>
       </c>
       <c r="D21">
-        <v>1.030187011240801</v>
+        <v>0.9639220297887722</v>
       </c>
       <c r="E21">
-        <v>1.025178177843714</v>
+        <v>0.9446851484614512</v>
       </c>
       <c r="F21">
-        <v>1.027834641561373</v>
+        <v>0.8834120588656004</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032265176411581</v>
+        <v>1.014884091953935</v>
       </c>
       <c r="J21">
-        <v>1.031757778808791</v>
+        <v>0.9641307762537136</v>
       </c>
       <c r="K21">
-        <v>1.033788918189178</v>
+        <v>0.9796207375152185</v>
       </c>
       <c r="L21">
-        <v>1.028799061612152</v>
+        <v>0.9607961408086394</v>
       </c>
       <c r="M21">
-        <v>1.031445435338077</v>
+        <v>0.9009990174321231</v>
       </c>
       <c r="N21">
-        <v>1.033222993198971</v>
+        <v>0.9654999525433396</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023851825231024</v>
+        <v>0.9219138432029049</v>
       </c>
       <c r="D22">
-        <v>1.029216511492151</v>
+        <v>0.9564141262130293</v>
       </c>
       <c r="E22">
-        <v>1.024086801297737</v>
+        <v>0.9364369853545026</v>
       </c>
       <c r="F22">
-        <v>1.026007136823883</v>
+        <v>0.8670195140223391</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031856255649654</v>
+        <v>1.010718384124195</v>
       </c>
       <c r="J22">
-        <v>1.030773775817996</v>
+        <v>0.9565097032686682</v>
       </c>
       <c r="K22">
-        <v>1.032952038953504</v>
+        <v>0.9729014653672945</v>
       </c>
       <c r="L22">
-        <v>1.027842557365968</v>
+        <v>0.953382331016158</v>
       </c>
       <c r="M22">
-        <v>1.029755293865902</v>
+        <v>0.8857821761875161</v>
       </c>
       <c r="N22">
-        <v>1.032237592811063</v>
+        <v>0.9578680567605062</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024510001771129</v>
+        <v>0.9270441642403534</v>
       </c>
       <c r="D23">
-        <v>1.029731415987634</v>
+        <v>0.9604495369609303</v>
       </c>
       <c r="E23">
-        <v>1.024665843971196</v>
+        <v>0.9408693871049024</v>
       </c>
       <c r="F23">
-        <v>1.026976988271895</v>
+        <v>0.8758950999345354</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032073439442087</v>
+        <v>1.012963456436951</v>
       </c>
       <c r="J23">
-        <v>1.031295914975089</v>
+        <v>0.9606073296742556</v>
       </c>
       <c r="K23">
-        <v>1.033396158263263</v>
+        <v>0.9765153436187409</v>
       </c>
       <c r="L23">
-        <v>1.028350146006833</v>
+        <v>0.9573683354815208</v>
       </c>
       <c r="M23">
-        <v>1.030652339691235</v>
+        <v>0.8940211110935745</v>
       </c>
       <c r="N23">
-        <v>1.032760473465649</v>
+        <v>0.9619715022655938</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027090468498194</v>
+        <v>0.9458144218245583</v>
       </c>
       <c r="D24">
-        <v>1.031749248108091</v>
+        <v>0.9752140656483229</v>
       </c>
       <c r="E24">
-        <v>1.026934889480687</v>
+        <v>0.9571016294496157</v>
       </c>
       <c r="F24">
-        <v>1.030772146725429</v>
+        <v>0.9071847733155535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032919507777806</v>
+        <v>1.021060675298019</v>
       </c>
       <c r="J24">
-        <v>1.033340546751513</v>
+        <v>0.9755705745688598</v>
       </c>
       <c r="K24">
-        <v>1.035134210571414</v>
+        <v>0.9896908953390747</v>
       </c>
       <c r="L24">
-        <v>1.030336892962164</v>
+        <v>0.9719264337761129</v>
       </c>
       <c r="M24">
-        <v>1.034160553567961</v>
+        <v>0.9230646333484231</v>
       </c>
       <c r="N24">
-        <v>1.034808008853718</v>
+        <v>0.9769559966842564</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030063656907836</v>
+        <v>0.9652974868685482</v>
       </c>
       <c r="D25">
-        <v>1.034072242343767</v>
+        <v>0.9905438901636726</v>
       </c>
       <c r="E25">
-        <v>1.02954683778813</v>
+        <v>0.9739711316254421</v>
       </c>
       <c r="F25">
-        <v>1.035130783362377</v>
+        <v>0.9381177539515925</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033883159609586</v>
+        <v>1.029282214256721</v>
       </c>
       <c r="J25">
-        <v>1.035691220050267</v>
+        <v>0.9910519538798477</v>
       </c>
       <c r="K25">
-        <v>1.037130211396782</v>
+        <v>1.003290795423354</v>
       </c>
       <c r="L25">
-        <v>1.032619149536559</v>
+        <v>0.9869874144252867</v>
       </c>
       <c r="M25">
-        <v>1.038185417289949</v>
+        <v>0.9517592105100673</v>
       </c>
       <c r="N25">
-        <v>1.037162020378182</v>
+        <v>0.9924593613296048</v>
       </c>
     </row>
   </sheetData>
